--- a/ww2-losses/src/main/resources/migration_1946_1958/migration_1946_1958.xlsx
+++ b/ww2-losses/src/main/resources/migration_1946_1958/migration_1946_1958.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\@\zzzz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\ww2-losses\src\main\resources\migration_1946_1958\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD12B6B-224D-4DA7-93EF-3666773DFA28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9169D6-FEDB-4381-8FEA-25BC97B86BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16050" yWindow="1350" windowWidth="26670" windowHeight="14835" activeTab="5" xr2:uid="{BADB6148-2004-42D3-9467-71B254EDBA84}"/>
+    <workbookView xWindow="88575" yWindow="3045" windowWidth="25650" windowHeight="16290" activeTab="6" xr2:uid="{BADB6148-2004-42D3-9467-71B254EDBA84}"/>
   </bookViews>
   <sheets>
     <sheet name="Заглавие" sheetId="6" r:id="rId1"/>
@@ -19,8 +19,9 @@
     <sheet name="ПЖ" sheetId="3" r:id="rId4"/>
     <sheet name="УМ" sheetId="4" r:id="rId5"/>
     <sheet name="УЖ" sheetId="5" r:id="rId6"/>
+    <sheet name="Баланс" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="28">
   <si>
     <t>1-3</t>
   </si>
@@ -115,13 +121,19 @@
   <si>
     <t>возраст:</t>
   </si>
+  <si>
+    <t>diff</t>
+  </si>
+  <si>
+    <t>Баланс прибытий и убытий мужчин и женщин (сумма-разница предыдущих четырёх страниц)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -164,8 +176,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -486,9 +498,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -506,14 +518,14 @@
       <selection activeCell="R2" sqref="R2:U15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>1946</v>
       </c>
@@ -566,7 +578,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>1947</v>
       </c>
@@ -619,7 +631,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>1948</v>
       </c>
@@ -672,7 +684,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>1949</v>
       </c>
@@ -725,7 +737,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>1950</v>
       </c>
@@ -778,7 +790,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>1951</v>
       </c>
@@ -831,7 +843,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>1952</v>
       </c>
@@ -884,7 +896,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>1953</v>
       </c>
@@ -937,7 +949,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>1954</v>
       </c>
@@ -990,7 +1002,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>1955</v>
       </c>
@@ -1043,7 +1055,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>1956</v>
       </c>
@@ -1096,7 +1108,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>1957</v>
       </c>
@@ -1149,7 +1161,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>1958</v>
       </c>
@@ -1209,23 +1221,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D2814D2-C3E2-4CAE-870E-F4A5322E08CD}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1269,7 +1281,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1311,7 +1323,7 @@
         <v>2905</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1329,7 +1341,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -1371,7 +1383,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1413,7 +1425,7 @@
         <v>88.6</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -1455,7 +1467,7 @@
         <v>84.4</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -1497,7 +1509,7 @@
         <v>79.3</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -1539,7 +1551,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -1581,7 +1593,7 @@
         <v>165.2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -1623,7 +1635,7 @@
         <v>174.6</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -1665,7 +1677,7 @@
         <v>128.5</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -1707,7 +1719,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -1749,7 +1761,7 @@
         <v>493.2</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -1791,7 +1803,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -1833,7 +1845,7 @@
         <v>123.8</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -1875,7 +1887,7 @@
         <v>92.7</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
@@ -1917,7 +1929,7 @@
         <v>72.2</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
@@ -1959,7 +1971,7 @@
         <v>45.3</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -2001,7 +2013,7 @@
         <v>27.9</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -2043,7 +2055,7 @@
         <v>46.5</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -2083,6 +2095,59 @@
       </c>
       <c r="N23" s="4">
         <v>11.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="3">
+        <f>SUM(B6:B23)-B4</f>
+        <v>9.9999999999454303E-2</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" ref="C25:K25" si="0">SUM(C6:C23)-C4</f>
+        <v>0.1000000000003638</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" si="0"/>
+        <v>0.20000000000027285</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999909051E-2</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="0"/>
+        <v>9.9999999999909051E-2</v>
+      </c>
+      <c r="H25" s="3">
+        <f t="shared" si="0"/>
+        <v>0.20000000000027285</v>
+      </c>
+      <c r="I25" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="3">
+        <f t="shared" si="0"/>
+        <v>0.19999999999936335</v>
+      </c>
+      <c r="K25" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.1999999999998181</v>
+      </c>
+      <c r="M25" s="3">
+        <f t="shared" ref="M25:N25" si="1">SUM(M6:M23)-M4</f>
+        <v>9.9999999999909051E-2</v>
+      </c>
+      <c r="N25" s="3">
+        <f t="shared" si="1"/>
+        <v>-0.1000000000003638</v>
       </c>
     </row>
   </sheetData>
@@ -2093,20 +2158,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77FFACF7-9AA3-46E1-9759-FEAB73E35EA8}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A25" sqref="A25:N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="15.20703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -2150,7 +2218,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -2192,7 +2260,7 @@
         <v>2484.9</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -2210,7 +2278,7 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -2252,7 +2320,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -2294,7 +2362,7 @@
         <v>83.6</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -2336,7 +2404,7 @@
         <v>81.2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -2378,7 +2446,7 @@
         <v>76.3</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -2420,7 +2488,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -2462,7 +2530,7 @@
         <v>157.5</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -2504,7 +2572,7 @@
         <v>165.9</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -2546,7 +2614,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -2588,7 +2656,7 @@
         <v>619.70000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -2630,7 +2698,7 @@
         <v>323.7</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -2672,7 +2740,7 @@
         <v>244.3</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -2714,7 +2782,7 @@
         <v>118.9</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -2756,7 +2824,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
@@ -2798,7 +2866,7 @@
         <v>68.099999999999994</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
@@ -2840,7 +2908,7 @@
         <v>58.9</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -2882,7 +2950,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -2924,7 +2992,7 @@
         <v>132.19999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -2964,6 +3032,59 @@
       </c>
       <c r="N23" s="3">
         <v>10.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="3">
+        <f>SUM(B6:B23)-B4</f>
+        <v>-0.19999999999890861</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" ref="C25:K25" si="0">SUM(C6:C23)-C4</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="0"/>
+        <v>0.1000000000003638</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999454303E-2</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.1000000000003638</v>
+      </c>
+      <c r="H25" s="3">
+        <f t="shared" si="0"/>
+        <v>0.1000000000003638</v>
+      </c>
+      <c r="I25" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="3">
+        <f t="shared" si="0"/>
+        <v>9.9999999999909051E-2</v>
+      </c>
+      <c r="K25" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.1000000000003638</v>
+      </c>
+      <c r="M25" s="3">
+        <f t="shared" ref="M25:N25" si="1">SUM(M6:M23)-M4</f>
+        <v>9.9999999999454303E-2</v>
+      </c>
+      <c r="N25" s="3">
+        <f t="shared" si="1"/>
+        <v>0.1999999999998181</v>
       </c>
     </row>
   </sheetData>
@@ -2973,20 +3094,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D281A8-2B4C-4639-BCC6-CEBD2CF838EE}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A25" sqref="A25:N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="15.68359375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -3030,7 +3154,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -3072,12 +3196,12 @@
         <v>2495.4</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -3119,7 +3243,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -3161,7 +3285,7 @@
         <v>71.099999999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -3203,7 +3327,7 @@
         <v>67.099999999999994</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -3245,7 +3369,7 @@
         <v>59.3</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -3287,7 +3411,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -3329,7 +3453,7 @@
         <v>98.5</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -3371,7 +3495,7 @@
         <v>138.80000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -3413,7 +3537,7 @@
         <v>224.2</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -3455,7 +3579,7 @@
         <v>681.5</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -3497,7 +3621,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -3539,7 +3663,7 @@
         <v>288.5</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -3581,7 +3705,7 @@
         <v>114.1</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -3623,7 +3747,7 @@
         <v>86.4</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
@@ -3665,7 +3789,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
@@ -3707,7 +3831,7 @@
         <v>42.6</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -3749,7 +3873,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -3791,7 +3915,7 @@
         <v>42.6</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -3831,6 +3955,59 @@
       </c>
       <c r="N23" s="4">
         <v>13.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="3">
+        <f>SUM(B6:B23)-B4</f>
+        <v>0.10000000000013642</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" ref="C25:K25" si="0">SUM(C6:C23)-C4</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.20000000000027285</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" si="0"/>
+        <v>0.10000000000013642</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.19999999999959073</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.1000000000003638</v>
+      </c>
+      <c r="I25" s="3">
+        <f t="shared" si="0"/>
+        <v>9.9999999999909051E-2</v>
+      </c>
+      <c r="J25" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="3">
+        <f t="shared" si="0"/>
+        <v>9.9999999999909051E-2</v>
+      </c>
+      <c r="M25" s="3">
+        <f t="shared" ref="M25:N25" si="1">SUM(M6:M23)-M4</f>
+        <v>-9.9999999999909051E-2</v>
+      </c>
+      <c r="N25" s="3">
+        <f t="shared" si="1"/>
+        <v>-0.1000000000003638</v>
       </c>
     </row>
   </sheetData>
@@ -3840,20 +4017,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3868B755-F78A-4B2F-B5C8-806682498280}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="15.578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -3897,7 +4077,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -3939,7 +4119,7 @@
         <v>2218.3000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -3957,7 +4137,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -3999,7 +4179,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -4041,7 +4221,7 @@
         <v>66.400000000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -4083,7 +4263,7 @@
         <v>65.3</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -4125,7 +4305,7 @@
         <v>56.9</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -4167,7 +4347,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -4209,7 +4389,7 @@
         <v>92.8</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -4251,7 +4431,7 @@
         <v>122.5</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -4293,7 +4473,7 @@
         <v>157.19999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -4335,7 +4515,7 @@
         <v>617.29999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -4377,7 +4557,7 @@
         <v>318.5</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -4419,7 +4599,7 @@
         <v>235.4</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -4461,7 +4641,7 @@
         <v>112.1</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -4503,7 +4683,7 @@
         <v>69.8</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
@@ -4545,7 +4725,7 @@
         <v>59.2</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
@@ -4587,7 +4767,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -4629,7 +4809,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -4671,7 +4851,7 @@
         <v>112.6</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -4713,7 +4893,1222 @@
         <v>12.9</v>
       </c>
     </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="3">
+        <f>SUM(B6:B23)-B4</f>
+        <v>0.20000000000004547</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" ref="C25:K25" si="0">SUM(C6:C23)-C4</f>
+        <v>-0.20000000000004547</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999909051E-2</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
+        <f t="shared" si="0"/>
+        <v>0.20000000000027285</v>
+      </c>
+      <c r="I25" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="3">
+        <f t="shared" si="0"/>
+        <v>0.1999999999998181</v>
+      </c>
+      <c r="M25" s="3">
+        <f t="shared" ref="M25:N25" si="1">SUM(M6:M23)-M4</f>
+        <v>0.20000000000027285</v>
+      </c>
+      <c r="N25" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A948111C-3A60-44E2-B7D2-C03FEEF6CE0A}">
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>1946</v>
+      </c>
+      <c r="C3">
+        <v>1947</v>
+      </c>
+      <c r="D3">
+        <v>1948</v>
+      </c>
+      <c r="E3">
+        <v>1949</v>
+      </c>
+      <c r="F3">
+        <v>1950</v>
+      </c>
+      <c r="G3">
+        <v>1951</v>
+      </c>
+      <c r="H3">
+        <v>1952</v>
+      </c>
+      <c r="I3">
+        <v>1953</v>
+      </c>
+      <c r="J3">
+        <v>1954</v>
+      </c>
+      <c r="K3">
+        <v>1955</v>
+      </c>
+      <c r="L3">
+        <v>1956</v>
+      </c>
+      <c r="M3">
+        <v>1957</v>
+      </c>
+      <c r="N3">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="4">
+        <f>ПМ!B4 + ПЖ!B4 - УМ!B4 - УЖ!B4</f>
+        <v>2649.0000000000009</v>
+      </c>
+      <c r="C4" s="4">
+        <f>ПМ!C4 + ПЖ!C4 - УМ!C4 - УЖ!C4</f>
+        <v>742.89999999999918</v>
+      </c>
+      <c r="D4" s="4">
+        <f>ПМ!D4 + ПЖ!D4 - УМ!D4 - УЖ!D4</f>
+        <v>1036.0000000000002</v>
+      </c>
+      <c r="E4" s="4">
+        <f>ПМ!E4 + ПЖ!E4 - УМ!E4 - УЖ!E4</f>
+        <v>903.60000000000014</v>
+      </c>
+      <c r="F4" s="4">
+        <f>ПМ!F4 + ПЖ!F4 - УМ!F4 - УЖ!F4</f>
+        <v>1102.7000000000003</v>
+      </c>
+      <c r="G4" s="4">
+        <f>ПМ!G4 + ПЖ!G4 - УМ!G4 - УЖ!G4</f>
+        <v>1184.8000000000004</v>
+      </c>
+      <c r="H4" s="4">
+        <f>ПМ!H4 + ПЖ!H4 - УМ!H4 - УЖ!H4</f>
+        <v>1094.5999999999999</v>
+      </c>
+      <c r="I4" s="4">
+        <f>ПМ!I4 + ПЖ!I4 - УМ!I4 - УЖ!I4</f>
+        <v>1649.7999999999993</v>
+      </c>
+      <c r="J4" s="4">
+        <f>ПМ!J4 + ПЖ!J4 - УМ!J4 - УЖ!J4</f>
+        <v>847.19999999999982</v>
+      </c>
+      <c r="K4" s="4">
+        <f>ПМ!K4 + ПЖ!K4 - УМ!K4 - УЖ!K4</f>
+        <v>586.099999999999</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4">
+        <f>ПМ!M4 + ПЖ!M4 - УМ!M4 - УЖ!M4</f>
+        <v>674.09999999999991</v>
+      </c>
+      <c r="N4" s="4">
+        <f>ПМ!N4 + ПЖ!N4 - УМ!N4 - УЖ!N4</f>
+        <v>676.19999999999936</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4">
+        <f>ПМ!B6 + ПЖ!B6 - УМ!B6 - УЖ!B6</f>
+        <v>24.499999999999993</v>
+      </c>
+      <c r="C6" s="4">
+        <f>ПМ!C6 + ПЖ!C6 - УМ!C6 - УЖ!C6</f>
+        <v>16.5</v>
+      </c>
+      <c r="D6" s="4">
+        <f>ПМ!D6 + ПЖ!D6 - УМ!D6 - УЖ!D6</f>
+        <v>13.3</v>
+      </c>
+      <c r="E6" s="4">
+        <f>ПМ!E6 + ПЖ!E6 - УМ!E6 - УЖ!E6</f>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="F6" s="4">
+        <f>ПМ!F6 + ПЖ!F6 - УМ!F6 - УЖ!F6</f>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="G6" s="4">
+        <f>ПМ!G6 + ПЖ!G6 - УМ!G6 - УЖ!G6</f>
+        <v>13.700000000000005</v>
+      </c>
+      <c r="H6" s="4">
+        <f>ПМ!H6 + ПЖ!H6 - УМ!H6 - УЖ!H6</f>
+        <v>12.499999999999996</v>
+      </c>
+      <c r="I6" s="4">
+        <f>ПМ!I6 + ПЖ!I6 - УМ!I6 - УЖ!I6</f>
+        <v>12.9</v>
+      </c>
+      <c r="J6" s="4">
+        <f>ПМ!J6 + ПЖ!J6 - УМ!J6 - УЖ!J6</f>
+        <v>9.7999999999999989</v>
+      </c>
+      <c r="K6" s="4">
+        <f>ПМ!K6 + ПЖ!K6 - УМ!K6 - УЖ!K6</f>
+        <v>5.1999999999999993</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4">
+        <f>ПМ!M6 + ПЖ!M6 - УМ!M6 - УЖ!M6</f>
+        <v>7.6000000000000014</v>
+      </c>
+      <c r="N6" s="4">
+        <f>ПМ!N6 + ПЖ!N6 - УМ!N6 - УЖ!N6</f>
+        <v>8.2999999999999989</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="4">
+        <f>ПМ!B7 + ПЖ!B7 - УМ!B7 - УЖ!B7</f>
+        <v>44.9</v>
+      </c>
+      <c r="C7" s="4">
+        <f>ПМ!C7 + ПЖ!C7 - УМ!C7 - УЖ!C7</f>
+        <v>31.699999999999989</v>
+      </c>
+      <c r="D7" s="4">
+        <f>ПМ!D7 + ПЖ!D7 - УМ!D7 - УЖ!D7</f>
+        <v>37.699999999999996</v>
+      </c>
+      <c r="E7" s="4">
+        <f>ПМ!E7 + ПЖ!E7 - УМ!E7 - УЖ!E7</f>
+        <v>43.20000000000001</v>
+      </c>
+      <c r="F7" s="4">
+        <f>ПМ!F7 + ПЖ!F7 - УМ!F7 - УЖ!F7</f>
+        <v>49.500000000000014</v>
+      </c>
+      <c r="G7" s="4">
+        <f>ПМ!G7 + ПЖ!G7 - УМ!G7 - УЖ!G7</f>
+        <v>50.59999999999998</v>
+      </c>
+      <c r="H7" s="4">
+        <f>ПМ!H7 + ПЖ!H7 - УМ!H7 - УЖ!H7</f>
+        <v>43.700000000000017</v>
+      </c>
+      <c r="I7" s="4">
+        <f>ПМ!I7 + ПЖ!I7 - УМ!I7 - УЖ!I7</f>
+        <v>53.100000000000023</v>
+      </c>
+      <c r="J7" s="4">
+        <f>ПМ!J7 + ПЖ!J7 - УМ!J7 - УЖ!J7</f>
+        <v>28.399999999999991</v>
+      </c>
+      <c r="K7" s="4">
+        <f>ПМ!K7 + ПЖ!K7 - УМ!K7 - УЖ!K7</f>
+        <v>13.40000000000002</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4">
+        <f>ПМ!M7 + ПЖ!M7 - УМ!M7 - УЖ!M7</f>
+        <v>31.199999999999989</v>
+      </c>
+      <c r="N7" s="4">
+        <f>ПМ!N7 + ПЖ!N7 - УМ!N7 - УЖ!N7</f>
+        <v>34.699999999999989</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4">
+        <f>ПМ!B8 + ПЖ!B8 - УМ!B8 - УЖ!B8</f>
+        <v>97.5</v>
+      </c>
+      <c r="C8" s="4">
+        <f>ПМ!C8 + ПЖ!C8 - УМ!C8 - УЖ!C8</f>
+        <v>32.300000000000026</v>
+      </c>
+      <c r="D8" s="4">
+        <f>ПМ!D8 + ПЖ!D8 - УМ!D8 - УЖ!D8</f>
+        <v>22.600000000000016</v>
+      </c>
+      <c r="E8" s="4">
+        <f>ПМ!E8 + ПЖ!E8 - УМ!E8 - УЖ!E8</f>
+        <v>19.899999999999995</v>
+      </c>
+      <c r="F8" s="4">
+        <f>ПМ!F8 + ПЖ!F8 - УМ!F8 - УЖ!F8</f>
+        <v>25.400000000000013</v>
+      </c>
+      <c r="G8" s="4">
+        <f>ПМ!G8 + ПЖ!G8 - УМ!G8 - УЖ!G8</f>
+        <v>32.300000000000004</v>
+      </c>
+      <c r="H8" s="4">
+        <f>ПМ!H8 + ПЖ!H8 - УМ!H8 - УЖ!H8</f>
+        <v>37.599999999999994</v>
+      </c>
+      <c r="I8" s="4">
+        <f>ПМ!I8 + ПЖ!I8 - УМ!I8 - УЖ!I8</f>
+        <v>49.899999999999984</v>
+      </c>
+      <c r="J8" s="4">
+        <f>ПМ!J8 + ПЖ!J8 - УМ!J8 - УЖ!J8</f>
+        <v>33.800000000000011</v>
+      </c>
+      <c r="K8" s="4">
+        <f>ПМ!K8 + ПЖ!K8 - УМ!K8 - УЖ!K8</f>
+        <v>15.399999999999991</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4">
+        <f>ПМ!M8 + ПЖ!M8 - УМ!M8 - УЖ!M8</f>
+        <v>30.699999999999974</v>
+      </c>
+      <c r="N8" s="4">
+        <f>ПМ!N8 + ПЖ!N8 - УМ!N8 - УЖ!N8</f>
+        <v>33.200000000000031</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="4">
+        <f>ПМ!B9 + ПЖ!B9 - УМ!B9 - УЖ!B9</f>
+        <v>135.4</v>
+      </c>
+      <c r="C9" s="4">
+        <f>ПМ!C9 + ПЖ!C9 - УМ!C9 - УЖ!C9</f>
+        <v>51</v>
+      </c>
+      <c r="D9" s="4">
+        <f>ПМ!D9 + ПЖ!D9 - УМ!D9 - УЖ!D9</f>
+        <v>51.899999999999977</v>
+      </c>
+      <c r="E9" s="4">
+        <f>ПМ!E9 + ПЖ!E9 - УМ!E9 - УЖ!E9</f>
+        <v>55.499999999999972</v>
+      </c>
+      <c r="F9" s="4">
+        <f>ПМ!F9 + ПЖ!F9 - УМ!F9 - УЖ!F9</f>
+        <v>49.1</v>
+      </c>
+      <c r="G9" s="4">
+        <f>ПМ!G9 + ПЖ!G9 - УМ!G9 - УЖ!G9</f>
+        <v>44.6</v>
+      </c>
+      <c r="H9" s="4">
+        <f>ПМ!H9 + ПЖ!H9 - УМ!H9 - УЖ!H9</f>
+        <v>37.70000000000001</v>
+      </c>
+      <c r="I9" s="4">
+        <f>ПМ!I9 + ПЖ!I9 - УМ!I9 - УЖ!I9</f>
+        <v>36.300000000000004</v>
+      </c>
+      <c r="J9" s="4">
+        <f>ПМ!J9 + ПЖ!J9 - УМ!J9 - УЖ!J9</f>
+        <v>25.899999999999991</v>
+      </c>
+      <c r="K9" s="4">
+        <f>ПМ!K9 + ПЖ!K9 - УМ!K9 - УЖ!K9</f>
+        <v>19.099999999999994</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4">
+        <f>ПМ!M9 + ПЖ!M9 - УМ!M9 - УЖ!M9</f>
+        <v>32.300000000000018</v>
+      </c>
+      <c r="N9" s="4">
+        <f>ПМ!N9 + ПЖ!N9 - УМ!N9 - УЖ!N9</f>
+        <v>39.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="4">
+        <f>ПМ!B10 + ПЖ!B10 - УМ!B10 - УЖ!B10</f>
+        <v>82.399999999999991</v>
+      </c>
+      <c r="C10" s="4">
+        <f>ПМ!C10 + ПЖ!C10 - УМ!C10 - УЖ!C10</f>
+        <v>53.399999999999991</v>
+      </c>
+      <c r="D10" s="4">
+        <f>ПМ!D10 + ПЖ!D10 - УМ!D10 - УЖ!D10</f>
+        <v>45.5</v>
+      </c>
+      <c r="E10" s="4">
+        <f>ПМ!E10 + ПЖ!E10 - УМ!E10 - УЖ!E10</f>
+        <v>44</v>
+      </c>
+      <c r="F10" s="4">
+        <f>ПМ!F10 + ПЖ!F10 - УМ!F10 - УЖ!F10</f>
+        <v>53.000000000000007</v>
+      </c>
+      <c r="G10" s="4">
+        <f>ПМ!G10 + ПЖ!G10 - УМ!G10 - УЖ!G10</f>
+        <v>64.300000000000011</v>
+      </c>
+      <c r="H10" s="4">
+        <f>ПМ!H10 + ПЖ!H10 - УМ!H10 - УЖ!H10</f>
+        <v>67.699999999999989</v>
+      </c>
+      <c r="I10" s="4">
+        <f>ПМ!I10 + ПЖ!I10 - УМ!I10 - УЖ!I10</f>
+        <v>67</v>
+      </c>
+      <c r="J10" s="4">
+        <f>ПМ!J10 + ПЖ!J10 - УМ!J10 - УЖ!J10</f>
+        <v>52.3</v>
+      </c>
+      <c r="K10" s="4">
+        <f>ПМ!K10 + ПЖ!K10 - УМ!K10 - УЖ!K10</f>
+        <v>36.799999999999997</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4">
+        <f>ПМ!M10 + ПЖ!M10 - УМ!M10 - УЖ!M10</f>
+        <v>19.599999999999994</v>
+      </c>
+      <c r="N10" s="4">
+        <f>ПМ!N10 + ПЖ!N10 - УМ!N10 - УЖ!N10</f>
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="4">
+        <f>ПМ!B11 + ПЖ!B11 - УМ!B11 - УЖ!B11</f>
+        <v>228.79999999999995</v>
+      </c>
+      <c r="C11" s="4">
+        <f>ПМ!C11 + ПЖ!C11 - УМ!C11 - УЖ!C11</f>
+        <v>171.40000000000003</v>
+      </c>
+      <c r="D11" s="4">
+        <f>ПМ!D11 + ПЖ!D11 - УМ!D11 - УЖ!D11</f>
+        <v>182.99999999999997</v>
+      </c>
+      <c r="E11" s="4">
+        <f>ПМ!E11 + ПЖ!E11 - УМ!E11 - УЖ!E11</f>
+        <v>171.1</v>
+      </c>
+      <c r="F11" s="4">
+        <f>ПМ!F11 + ПЖ!F11 - УМ!F11 - УЖ!F11</f>
+        <v>158.60000000000002</v>
+      </c>
+      <c r="G11" s="4">
+        <f>ПМ!G11 + ПЖ!G11 - УМ!G11 - УЖ!G11</f>
+        <v>191.4</v>
+      </c>
+      <c r="H11" s="4">
+        <f>ПМ!H11 + ПЖ!H11 - УМ!H11 - УЖ!H11</f>
+        <v>214.70000000000002</v>
+      </c>
+      <c r="I11" s="4">
+        <f>ПМ!I11 + ПЖ!I11 - УМ!I11 - УЖ!I11</f>
+        <v>230.3</v>
+      </c>
+      <c r="J11" s="4">
+        <f>ПМ!J11 + ПЖ!J11 - УМ!J11 - УЖ!J11</f>
+        <v>186.40000000000003</v>
+      </c>
+      <c r="K11" s="4">
+        <f>ПМ!K11 + ПЖ!K11 - УМ!K11 - УЖ!K11</f>
+        <v>162.99999999999994</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4">
+        <f>ПМ!M11 + ПЖ!M11 - УМ!M11 - УЖ!M11</f>
+        <v>124.80000000000003</v>
+      </c>
+      <c r="N11" s="4">
+        <f>ПМ!N11 + ПЖ!N11 - УМ!N11 - УЖ!N11</f>
+        <v>131.39999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="4">
+        <f>ПМ!B12 + ПЖ!B12 - УМ!B12 - УЖ!B12</f>
+        <v>98.500000000000014</v>
+      </c>
+      <c r="C12" s="4">
+        <f>ПМ!C12 + ПЖ!C12 - УМ!C12 - УЖ!C12</f>
+        <v>58.500000000000014</v>
+      </c>
+      <c r="D12" s="4">
+        <f>ПМ!D12 + ПЖ!D12 - УМ!D12 - УЖ!D12</f>
+        <v>101.90000000000002</v>
+      </c>
+      <c r="E12" s="4">
+        <f>ПМ!E12 + ПЖ!E12 - УМ!E12 - УЖ!E12</f>
+        <v>95.6</v>
+      </c>
+      <c r="F12" s="4">
+        <f>ПМ!F12 + ПЖ!F12 - УМ!F12 - УЖ!F12</f>
+        <v>92.4</v>
+      </c>
+      <c r="G12" s="4">
+        <f>ПМ!G12 + ПЖ!G12 - УМ!G12 - УЖ!G12</f>
+        <v>86.09999999999998</v>
+      </c>
+      <c r="H12" s="4">
+        <f>ПМ!H12 + ПЖ!H12 - УМ!H12 - УЖ!H12</f>
+        <v>77.899999999999977</v>
+      </c>
+      <c r="I12" s="4">
+        <f>ПМ!I12 + ПЖ!I12 - УМ!I12 - УЖ!I12</f>
+        <v>89.299999999999969</v>
+      </c>
+      <c r="J12" s="4">
+        <f>ПМ!J12 + ПЖ!J12 - УМ!J12 - УЖ!J12</f>
+        <v>70.799999999999969</v>
+      </c>
+      <c r="K12" s="4">
+        <f>ПМ!K12 + ПЖ!K12 - УМ!K12 - УЖ!K12</f>
+        <v>59.999999999999972</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4">
+        <f>ПМ!M12 + ПЖ!M12 - УМ!M12 - УЖ!M12</f>
+        <v>76.699999999999989</v>
+      </c>
+      <c r="N12" s="4">
+        <f>ПМ!N12 + ПЖ!N12 - УМ!N12 - УЖ!N12</f>
+        <v>79.199999999999989</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="4">
+        <f>ПМ!B13 + ПЖ!B13 - УМ!B13 - УЖ!B13</f>
+        <v>52.999999999999972</v>
+      </c>
+      <c r="C13" s="4">
+        <f>ПМ!C13 + ПЖ!C13 - УМ!C13 - УЖ!C13</f>
+        <v>23.700000000000003</v>
+      </c>
+      <c r="D13" s="4">
+        <f>ПМ!D13 + ПЖ!D13 - УМ!D13 - УЖ!D13</f>
+        <v>90.100000000000023</v>
+      </c>
+      <c r="E13" s="4">
+        <f>ПМ!E13 + ПЖ!E13 - УМ!E13 - УЖ!E13</f>
+        <v>81.199999999999974</v>
+      </c>
+      <c r="F13" s="4">
+        <f>ПМ!F13 + ПЖ!F13 - УМ!F13 - УЖ!F13</f>
+        <v>57.099999999999966</v>
+      </c>
+      <c r="G13" s="4">
+        <f>ПМ!G13 + ПЖ!G13 - УМ!G13 - УЖ!G13</f>
+        <v>-5.7999999999999972</v>
+      </c>
+      <c r="H13" s="4">
+        <f>ПМ!H13 + ПЖ!H13 - УМ!H13 - УЖ!H13</f>
+        <v>-34.200000000000017</v>
+      </c>
+      <c r="I13" s="4">
+        <f>ПМ!I13 + ПЖ!I13 - УМ!I13 - УЖ!I13</f>
+        <v>-17.999999999999972</v>
+      </c>
+      <c r="J13" s="4">
+        <f>ПМ!J13 + ПЖ!J13 - УМ!J13 - УЖ!J13</f>
+        <v>-81.200000000000017</v>
+      </c>
+      <c r="K13" s="4">
+        <f>ПМ!K13 + ПЖ!K13 - УМ!K13 - УЖ!K13</f>
+        <v>-96.4</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4">
+        <f>ПМ!M13 + ПЖ!M13 - УМ!M13 - УЖ!M13</f>
+        <v>-58.100000000000023</v>
+      </c>
+      <c r="N13" s="4">
+        <f>ПМ!N13 + ПЖ!N13 - УМ!N13 - УЖ!N13</f>
+        <v>-78.199999999999989</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="4">
+        <f>ПМ!B14 + ПЖ!B14 - УМ!B14 - УЖ!B14</f>
+        <v>371.1</v>
+      </c>
+      <c r="C14" s="4">
+        <f>ПМ!C14 + ПЖ!C14 - УМ!C14 - УЖ!C14</f>
+        <v>137.2999999999999</v>
+      </c>
+      <c r="D14" s="4">
+        <f>ПМ!D14 + ПЖ!D14 - УМ!D14 - УЖ!D14</f>
+        <v>198.49999999999989</v>
+      </c>
+      <c r="E14" s="4">
+        <f>ПМ!E14 + ПЖ!E14 - УМ!E14 - УЖ!E14</f>
+        <v>80.900000000000034</v>
+      </c>
+      <c r="F14" s="4">
+        <f>ПМ!F14 + ПЖ!F14 - УМ!F14 - УЖ!F14</f>
+        <v>148.10000000000002</v>
+      </c>
+      <c r="G14" s="4">
+        <f>ПМ!G14 + ПЖ!G14 - УМ!G14 - УЖ!G14</f>
+        <v>197.00000000000011</v>
+      </c>
+      <c r="H14" s="4">
+        <f>ПМ!H14 + ПЖ!H14 - УМ!H14 - УЖ!H14</f>
+        <v>219</v>
+      </c>
+      <c r="I14" s="4">
+        <f>ПМ!I14 + ПЖ!I14 - УМ!I14 - УЖ!I14</f>
+        <v>350.70000000000016</v>
+      </c>
+      <c r="J14" s="4">
+        <f>ПМ!J14 + ПЖ!J14 - УМ!J14 - УЖ!J14</f>
+        <v>208.50000000000011</v>
+      </c>
+      <c r="K14" s="4">
+        <f>ПМ!K14 + ПЖ!K14 - УМ!K14 - УЖ!K14</f>
+        <v>212.39999999999998</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4">
+        <f>ПМ!M14 + ПЖ!M14 - УМ!M14 - УЖ!M14</f>
+        <v>213.69999999999993</v>
+      </c>
+      <c r="N14" s="4">
+        <f>ПМ!N14 + ПЖ!N14 - УМ!N14 - УЖ!N14</f>
+        <v>257.90000000000009</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="4">
+        <f>ПМ!B15 + ПЖ!B15 - УМ!B15 - УЖ!B15</f>
+        <v>466.6</v>
+      </c>
+      <c r="C15" s="4">
+        <f>ПМ!C15 + ПЖ!C15 - УМ!C15 - УЖ!C15</f>
+        <v>90.800000000000011</v>
+      </c>
+      <c r="D15" s="4">
+        <f>ПМ!D15 + ПЖ!D15 - УМ!D15 - УЖ!D15</f>
+        <v>115.10000000000002</v>
+      </c>
+      <c r="E15" s="4">
+        <f>ПМ!E15 + ПЖ!E15 - УМ!E15 - УЖ!E15</f>
+        <v>105.89999999999992</v>
+      </c>
+      <c r="F15" s="4">
+        <f>ПМ!F15 + ПЖ!F15 - УМ!F15 - УЖ!F15</f>
+        <v>199.60000000000002</v>
+      </c>
+      <c r="G15" s="4">
+        <f>ПМ!G15 + ПЖ!G15 - УМ!G15 - УЖ!G15</f>
+        <v>193.60000000000002</v>
+      </c>
+      <c r="H15" s="4">
+        <f>ПМ!H15 + ПЖ!H15 - УМ!H15 - УЖ!H15</f>
+        <v>171.5</v>
+      </c>
+      <c r="I15" s="4">
+        <f>ПМ!I15 + ПЖ!I15 - УМ!I15 - УЖ!I15</f>
+        <v>331.1</v>
+      </c>
+      <c r="J15" s="4">
+        <f>ПМ!J15 + ПЖ!J15 - УМ!J15 - УЖ!J15</f>
+        <v>144.69999999999987</v>
+      </c>
+      <c r="K15" s="4">
+        <f>ПМ!K15 + ПЖ!K15 - УМ!K15 - УЖ!K15</f>
+        <v>56.899999999999977</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4">
+        <f>ПМ!M15 + ПЖ!M15 - УМ!M15 - УЖ!M15</f>
+        <v>73</v>
+      </c>
+      <c r="N15" s="4">
+        <f>ПМ!N15 + ПЖ!N15 - УМ!N15 - УЖ!N15</f>
+        <v>44.399999999999977</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="4">
+        <f>ПМ!B16 + ПЖ!B16 - УМ!B16 - УЖ!B16</f>
+        <v>389.50000000000006</v>
+      </c>
+      <c r="C16" s="4">
+        <f>ПМ!C16 + ПЖ!C16 - УМ!C16 - УЖ!C16</f>
+        <v>37.900000000000034</v>
+      </c>
+      <c r="D16" s="4">
+        <f>ПМ!D16 + ПЖ!D16 - УМ!D16 - УЖ!D16</f>
+        <v>60.900000000000006</v>
+      </c>
+      <c r="E16" s="4">
+        <f>ПМ!E16 + ПЖ!E16 - УМ!E16 - УЖ!E16</f>
+        <v>50.499999999999972</v>
+      </c>
+      <c r="F16" s="4">
+        <f>ПМ!F16 + ПЖ!F16 - УМ!F16 - УЖ!F16</f>
+        <v>58.100000000000051</v>
+      </c>
+      <c r="G16" s="4">
+        <f>ПМ!G16 + ПЖ!G16 - УМ!G16 - УЖ!G16</f>
+        <v>65.800000000000011</v>
+      </c>
+      <c r="H16" s="4">
+        <f>ПМ!H16 + ПЖ!H16 - УМ!H16 - УЖ!H16</f>
+        <v>55.900000000000034</v>
+      </c>
+      <c r="I16" s="4">
+        <f>ПМ!I16 + ПЖ!I16 - УМ!I16 - УЖ!I16</f>
+        <v>104.09999999999997</v>
+      </c>
+      <c r="J16" s="4">
+        <f>ПМ!J16 + ПЖ!J16 - УМ!J16 - УЖ!J16</f>
+        <v>33.199999999999989</v>
+      </c>
+      <c r="K16" s="4">
+        <f>ПМ!K16 + ПЖ!K16 - УМ!K16 - УЖ!K16</f>
+        <v>16.600000000000051</v>
+      </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4">
+        <f>ПМ!M16 + ПЖ!M16 - УМ!M16 - УЖ!M16</f>
+        <v>29.599999999999966</v>
+      </c>
+      <c r="N16" s="4">
+        <f>ПМ!N16 + ПЖ!N16 - УМ!N16 - УЖ!N16</f>
+        <v>22.399999999999949</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="4">
+        <f>ПМ!B17 + ПЖ!B17 - УМ!B17 - УЖ!B17</f>
+        <v>279.59999999999997</v>
+      </c>
+      <c r="C17" s="4">
+        <f>ПМ!C17 + ПЖ!C17 - УМ!C17 - УЖ!C17</f>
+        <v>16.299999999999983</v>
+      </c>
+      <c r="D17" s="4">
+        <f>ПМ!D17 + ПЖ!D17 - УМ!D17 - УЖ!D17</f>
+        <v>39.600000000000051</v>
+      </c>
+      <c r="E17" s="4">
+        <f>ПМ!E17 + ПЖ!E17 - УМ!E17 - УЖ!E17</f>
+        <v>40.100000000000023</v>
+      </c>
+      <c r="F17" s="4">
+        <f>ПМ!F17 + ПЖ!F17 - УМ!F17 - УЖ!F17</f>
+        <v>53.200000000000017</v>
+      </c>
+      <c r="G17" s="4">
+        <f>ПМ!G17 + ПЖ!G17 - УМ!G17 - УЖ!G17</f>
+        <v>57.699999999999989</v>
+      </c>
+      <c r="H17" s="4">
+        <f>ПМ!H17 + ПЖ!H17 - УМ!H17 - УЖ!H17</f>
+        <v>38.900000000000048</v>
+      </c>
+      <c r="I17" s="4">
+        <f>ПМ!I17 + ПЖ!I17 - УМ!I17 - УЖ!I17</f>
+        <v>83.499999999999972</v>
+      </c>
+      <c r="J17" s="4">
+        <f>ПМ!J17 + ПЖ!J17 - УМ!J17 - УЖ!J17</f>
+        <v>20.099999999999994</v>
+      </c>
+      <c r="K17" s="4">
+        <f>ПМ!K17 + ПЖ!K17 - УМ!K17 - УЖ!K17</f>
+        <v>9.1000000000000227</v>
+      </c>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4">
+        <f>ПМ!M17 + ПЖ!M17 - УМ!M17 - УЖ!M17</f>
+        <v>17.700000000000003</v>
+      </c>
+      <c r="N17" s="4">
+        <f>ПМ!N17 + ПЖ!N17 - УМ!N17 - УЖ!N17</f>
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="4">
+        <f>ПМ!B18 + ПЖ!B18 - УМ!B18 - УЖ!B18</f>
+        <v>154.69999999999999</v>
+      </c>
+      <c r="C18" s="4">
+        <f>ПМ!C18 + ПЖ!C18 - УМ!C18 - УЖ!C18</f>
+        <v>3.7000000000000028</v>
+      </c>
+      <c r="D18" s="4">
+        <f>ПМ!D18 + ПЖ!D18 - УМ!D18 - УЖ!D18</f>
+        <v>29.09999999999998</v>
+      </c>
+      <c r="E18" s="4">
+        <f>ПМ!E18 + ПЖ!E18 - УМ!E18 - УЖ!E18</f>
+        <v>34.600000000000009</v>
+      </c>
+      <c r="F18" s="4">
+        <f>ПМ!F18 + ПЖ!F18 - УМ!F18 - УЖ!F18</f>
+        <v>39.000000000000014</v>
+      </c>
+      <c r="G18" s="4">
+        <f>ПМ!G18 + ПЖ!G18 - УМ!G18 - УЖ!G18</f>
+        <v>50.2</v>
+      </c>
+      <c r="H18" s="4">
+        <f>ПМ!H18 + ПЖ!H18 - УМ!H18 - УЖ!H18</f>
+        <v>36.100000000000009</v>
+      </c>
+      <c r="I18" s="4">
+        <f>ПМ!I18 + ПЖ!I18 - УМ!I18 - УЖ!I18</f>
+        <v>71.600000000000023</v>
+      </c>
+      <c r="J18" s="4">
+        <f>ПМ!J18 + ПЖ!J18 - УМ!J18 - УЖ!J18</f>
+        <v>24.900000000000034</v>
+      </c>
+      <c r="K18" s="4">
+        <f>ПМ!K18 + ПЖ!K18 - УМ!K18 - УЖ!K18</f>
+        <v>15.399999999999977</v>
+      </c>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4">
+        <f>ПМ!M18 + ПЖ!M18 - УМ!M18 - УЖ!M18</f>
+        <v>13.500000000000014</v>
+      </c>
+      <c r="N18" s="4">
+        <f>ПМ!N18 + ПЖ!N18 - УМ!N18 - УЖ!N18</f>
+        <v>13.499999999999986</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="4">
+        <f>ПМ!B19 + ПЖ!B19 - УМ!B19 - УЖ!B19</f>
+        <v>74.300000000000011</v>
+      </c>
+      <c r="C19" s="4">
+        <f>ПМ!C19 + ПЖ!C19 - УМ!C19 - УЖ!C19</f>
+        <v>-5.7999999999999972</v>
+      </c>
+      <c r="D19" s="4">
+        <f>ПМ!D19 + ПЖ!D19 - УМ!D19 - УЖ!D19</f>
+        <v>19.099999999999994</v>
+      </c>
+      <c r="E19" s="4">
+        <f>ПМ!E19 + ПЖ!E19 - УМ!E19 - УЖ!E19</f>
+        <v>22.59999999999998</v>
+      </c>
+      <c r="F19" s="4">
+        <f>ПМ!F19 + ПЖ!F19 - УМ!F19 - УЖ!F19</f>
+        <v>32.299999999999997</v>
+      </c>
+      <c r="G19" s="4">
+        <f>ПМ!G19 + ПЖ!G19 - УМ!G19 - УЖ!G19</f>
+        <v>43.199999999999989</v>
+      </c>
+      <c r="H19" s="4">
+        <f>ПМ!H19 + ПЖ!H19 - УМ!H19 - УЖ!H19</f>
+        <v>31.399999999999977</v>
+      </c>
+      <c r="I19" s="4">
+        <f>ПМ!I19 + ПЖ!I19 - УМ!I19 - УЖ!I19</f>
+        <v>58.899999999999991</v>
+      </c>
+      <c r="J19" s="4">
+        <f>ПМ!J19 + ПЖ!J19 - УМ!J19 - УЖ!J19</f>
+        <v>22.899999999999977</v>
+      </c>
+      <c r="K19" s="4">
+        <f>ПМ!K19 + ПЖ!K19 - УМ!K19 - УЖ!K19</f>
+        <v>12.399999999999991</v>
+      </c>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4">
+        <f>ПМ!M19 + ПЖ!M19 - УМ!M19 - УЖ!M19</f>
+        <v>15.89999999999997</v>
+      </c>
+      <c r="N19" s="4">
+        <f>ПМ!N19 + ПЖ!N19 - УМ!N19 - УЖ!N19</f>
+        <v>13.100000000000009</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="4">
+        <f>ПМ!B20 + ПЖ!B20 - УМ!B20 - УЖ!B20</f>
+        <v>30.600000000000016</v>
+      </c>
+      <c r="C20" s="4">
+        <f>ПМ!C20 + ПЖ!C20 - УМ!C20 - УЖ!C20</f>
+        <v>-5.2999999999999901</v>
+      </c>
+      <c r="D20" s="4">
+        <f>ПМ!D20 + ПЖ!D20 - УМ!D20 - УЖ!D20</f>
+        <v>10.899999999999984</v>
+      </c>
+      <c r="E20" s="4">
+        <f>ПМ!E20 + ПЖ!E20 - УМ!E20 - УЖ!E20</f>
+        <v>13.700000000000003</v>
+      </c>
+      <c r="F20" s="4">
+        <f>ПМ!F20 + ПЖ!F20 - УМ!F20 - УЖ!F20</f>
+        <v>19.900000000000006</v>
+      </c>
+      <c r="G20" s="4">
+        <f>ПМ!G20 + ПЖ!G20 - УМ!G20 - УЖ!G20</f>
+        <v>28.000000000000007</v>
+      </c>
+      <c r="H20" s="4">
+        <f>ПМ!H20 + ПЖ!H20 - УМ!H20 - УЖ!H20</f>
+        <v>23</v>
+      </c>
+      <c r="I20" s="4">
+        <f>ПМ!I20 + ПЖ!I20 - УМ!I20 - УЖ!I20</f>
+        <v>41.6</v>
+      </c>
+      <c r="J20" s="4">
+        <f>ПМ!J20 + ПЖ!J20 - УМ!J20 - УЖ!J20</f>
+        <v>18.599999999999994</v>
+      </c>
+      <c r="K20" s="4">
+        <f>ПМ!K20 + ПЖ!K20 - УМ!K20 - УЖ!K20</f>
+        <v>12.300000000000011</v>
+      </c>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4">
+        <f>ПМ!M20 + ПЖ!M20 - УМ!M20 - УЖ!M20</f>
+        <v>13.000000000000014</v>
+      </c>
+      <c r="N20" s="4">
+        <f>ПМ!N20 + ПЖ!N20 - УМ!N20 - УЖ!N20</f>
+        <v>11.599999999999987</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="4">
+        <f>ПМ!B21 + ПЖ!B21 - УМ!B21 - УЖ!B21</f>
+        <v>32.599999999999994</v>
+      </c>
+      <c r="C21" s="4">
+        <f>ПМ!C21 + ПЖ!C21 - УМ!C21 - УЖ!C21</f>
+        <v>2.1999999999999957</v>
+      </c>
+      <c r="D21" s="4">
+        <f>ПМ!D21 + ПЖ!D21 - УМ!D21 - УЖ!D21</f>
+        <v>8.1999999999999957</v>
+      </c>
+      <c r="E21" s="4">
+        <f>ПМ!E21 + ПЖ!E21 - УМ!E21 - УЖ!E21</f>
+        <v>10.299999999999997</v>
+      </c>
+      <c r="F21" s="4">
+        <f>ПМ!F21 + ПЖ!F21 - УМ!F21 - УЖ!F21</f>
+        <v>13.500000000000007</v>
+      </c>
+      <c r="G21" s="4">
+        <f>ПМ!G21 + ПЖ!G21 - УМ!G21 - УЖ!G21</f>
+        <v>21.800000000000011</v>
+      </c>
+      <c r="H21" s="4">
+        <f>ПМ!H21 + ПЖ!H21 - УМ!H21 - УЖ!H21</f>
+        <v>19.400000000000006</v>
+      </c>
+      <c r="I21" s="4">
+        <f>ПМ!I21 + ПЖ!I21 - УМ!I21 - УЖ!I21</f>
+        <v>29.799999999999997</v>
+      </c>
+      <c r="J21" s="4">
+        <f>ПМ!J21 + ПЖ!J21 - УМ!J21 - УЖ!J21</f>
+        <v>12.900000000000006</v>
+      </c>
+      <c r="K21" s="4">
+        <f>ПМ!K21 + ПЖ!K21 - УМ!K21 - УЖ!K21</f>
+        <v>7.6999999999999957</v>
+      </c>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4">
+        <f>ПМ!M21 + ПЖ!M21 - УМ!M21 - УЖ!M21</f>
+        <v>11.300000000000004</v>
+      </c>
+      <c r="N21" s="4">
+        <f>ПМ!N21 + ПЖ!N21 - УМ!N21 - УЖ!N21</f>
+        <v>12.800000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="4">
+        <f>ПМ!B22 + ПЖ!B22 - УМ!B22 - УЖ!B22</f>
+        <v>83.7</v>
+      </c>
+      <c r="C22" s="4">
+        <f>ПМ!C22 + ПЖ!C22 - УМ!C22 - УЖ!C22</f>
+        <v>30.599999999999994</v>
+      </c>
+      <c r="D22" s="4">
+        <f>ПМ!D22 + ПЖ!D22 - УМ!D22 - УЖ!D22</f>
+        <v>10.099999999999994</v>
+      </c>
+      <c r="E22" s="4">
+        <f>ПМ!E22 + ПЖ!E22 - УМ!E22 - УЖ!E22</f>
+        <v>21.599999999999994</v>
+      </c>
+      <c r="F22" s="4">
+        <f>ПМ!F22 + ПЖ!F22 - УМ!F22 - УЖ!F22</f>
+        <v>37.399999999999977</v>
+      </c>
+      <c r="G22" s="4">
+        <f>ПМ!G22 + ПЖ!G22 - УМ!G22 - УЖ!G22</f>
+        <v>50</v>
+      </c>
+      <c r="H22" s="4">
+        <f>ПМ!H22 + ПЖ!H22 - УМ!H22 - УЖ!H22</f>
+        <v>40.5</v>
+      </c>
+      <c r="I22" s="4">
+        <f>ПМ!I22 + ПЖ!I22 - УМ!I22 - УЖ!I22</f>
+        <v>53.200000000000017</v>
+      </c>
+      <c r="J22" s="4">
+        <f>ПМ!J22 + ПЖ!J22 - УМ!J22 - УЖ!J22</f>
+        <v>33.599999999999966</v>
+      </c>
+      <c r="K22" s="4">
+        <f>ПМ!K22 + ПЖ!K22 - УМ!K22 - УЖ!K22</f>
+        <v>24.200000000000017</v>
+      </c>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4">
+        <f>ПМ!M22 + ПЖ!M22 - УМ!M22 - УЖ!M22</f>
+        <v>23.900000000000006</v>
+      </c>
+      <c r="N22" s="4">
+        <f>ПМ!N22 + ПЖ!N22 - УМ!N22 - УЖ!N22</f>
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="4">
+        <f>ПМ!B23 + ПЖ!B23 - УМ!B23 - УЖ!B23</f>
+        <v>0.90000000000000036</v>
+      </c>
+      <c r="C23" s="4">
+        <f>ПМ!C23 + ПЖ!C23 - УМ!C23 - УЖ!C23</f>
+        <v>-3.0000000000000018</v>
+      </c>
+      <c r="D23" s="4">
+        <f>ПМ!D23 + ПЖ!D23 - УМ!D23 - УЖ!D23</f>
+        <v>-1.2000000000000011</v>
+      </c>
+      <c r="E23" s="4">
+        <f>ПМ!E23 + ПЖ!E23 - УМ!E23 - УЖ!E23</f>
+        <v>-0.30000000000000071</v>
+      </c>
+      <c r="F23" s="4">
+        <f>ПМ!F23 + ПЖ!F23 - УМ!F23 - УЖ!F23</f>
+        <v>2.3000000000000007</v>
+      </c>
+      <c r="G23" s="4">
+        <f>ПМ!G23 + ПЖ!G23 - УМ!G23 - УЖ!G23</f>
+        <v>0.29999999999999805</v>
+      </c>
+      <c r="H23" s="4">
+        <f>ПМ!H23 + ПЖ!H23 - УМ!H23 - УЖ!H23</f>
+        <v>1.5</v>
+      </c>
+      <c r="I23" s="4">
+        <f>ПМ!I23 + ПЖ!I23 - УМ!I23 - УЖ!I23</f>
+        <v>4.3999999999999977</v>
+      </c>
+      <c r="J23" s="4">
+        <f>ПМ!J23 + ПЖ!J23 - УМ!J23 - УЖ!J23</f>
+        <v>1.8999999999999977</v>
+      </c>
+      <c r="K23" s="4">
+        <f>ПМ!K23 + ПЖ!K23 - УМ!K23 - УЖ!K23</f>
+        <v>2</v>
+      </c>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4">
+        <f>ПМ!M23 + ПЖ!M23 - УМ!M23 - УЖ!M23</f>
+        <v>-2.1999999999999975</v>
+      </c>
+      <c r="N23" s="4">
+        <f>ПМ!N23 + ПЖ!N23 - УМ!N23 - УЖ!N23</f>
+        <v>-5.2000000000000028</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="3">
+        <f>SUM(B6:B23)-B4</f>
+        <v>-0.40000000000145519</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" ref="C25:K25" si="0">SUM(C6:C23)-C4</f>
+        <v>0.30000000000097771</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="0"/>
+        <v>0.29999999999949978</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" si="0"/>
+        <v>0.20000000000004547</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
+        <f t="shared" si="0"/>
+        <v>0.20000000000027285</v>
+      </c>
+      <c r="I25" s="3">
+        <f t="shared" si="0"/>
+        <v>-9.9999999998999556E-2</v>
+      </c>
+      <c r="J25" s="3">
+        <f t="shared" si="0"/>
+        <v>0.30000000000006821</v>
+      </c>
+      <c r="K25" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.59999999999899956</v>
+      </c>
+      <c r="M25" s="3">
+        <f t="shared" ref="M25:N25" si="1">SUM(M6:M23)-M4</f>
+        <v>9.9999999999909051E-2</v>
+      </c>
+      <c r="N25" s="3">
+        <f t="shared" si="1"/>
+        <v>0.20000000000061391</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ww2-losses/src/main/resources/migration_1946_1958/migration_1946_1958.xlsx
+++ b/ww2-losses/src/main/resources/migration_1946_1958/migration_1946_1958.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\ww2-losses\src\main\resources\migration_1946_1958\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9169D6-FEDB-4381-8FEA-25BC97B86BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB1352F-5BBD-4068-833B-BD1BE8A94A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="88575" yWindow="3045" windowWidth="25650" windowHeight="16290" activeTab="6" xr2:uid="{BADB6148-2004-42D3-9467-71B254EDBA84}"/>
+    <workbookView xWindow="61155" yWindow="1515" windowWidth="25650" windowHeight="16290" activeTab="6" xr2:uid="{BADB6148-2004-42D3-9467-71B254EDBA84}"/>
   </bookViews>
   <sheets>
     <sheet name="Заглавие" sheetId="6" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="29">
   <si>
     <t>1-3</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>Баланс прибытий и убытий мужчин и женщин (сумма-разница предыдущих четырёх страниц)</t>
+  </si>
+  <si>
+    <t>Значения для 1956 года взяты как среднее от 1955 и 1957.</t>
   </si>
 </sst>
 </file>
@@ -4953,10 +4956,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A948111C-3A60-44E2-B7D2-C03FEEF6CE0A}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5054,7 +5057,10 @@
         <f>ПМ!K4 + ПЖ!K4 - УМ!K4 - УЖ!K4</f>
         <v>586.099999999999</v>
       </c>
-      <c r="L4" s="4"/>
+      <c r="L4" s="4">
+        <f>(K4+M4) / 2</f>
+        <v>630.09999999999945</v>
+      </c>
       <c r="M4" s="4">
         <f>ПМ!M4 + ПЖ!M4 - УМ!M4 - УЖ!M4</f>
         <v>674.09999999999991</v>
@@ -5126,7 +5132,10 @@
         <f>ПМ!K6 + ПЖ!K6 - УМ!K6 - УЖ!K6</f>
         <v>5.1999999999999993</v>
       </c>
-      <c r="L6" s="4"/>
+      <c r="L6" s="4">
+        <f>(K6+M6) / 2</f>
+        <v>6.4</v>
+      </c>
       <c r="M6" s="4">
         <f>ПМ!M6 + ПЖ!M6 - УМ!M6 - УЖ!M6</f>
         <v>7.6000000000000014</v>
@@ -5180,7 +5189,10 @@
         <f>ПМ!K7 + ПЖ!K7 - УМ!K7 - УЖ!K7</f>
         <v>13.40000000000002</v>
       </c>
-      <c r="L7" s="4"/>
+      <c r="L7" s="4">
+        <f t="shared" ref="L7:L23" si="0">(K7+M7) / 2</f>
+        <v>22.300000000000004</v>
+      </c>
       <c r="M7" s="4">
         <f>ПМ!M7 + ПЖ!M7 - УМ!M7 - УЖ!M7</f>
         <v>31.199999999999989</v>
@@ -5234,7 +5246,10 @@
         <f>ПМ!K8 + ПЖ!K8 - УМ!K8 - УЖ!K8</f>
         <v>15.399999999999991</v>
       </c>
-      <c r="L8" s="4"/>
+      <c r="L8" s="4">
+        <f t="shared" si="0"/>
+        <v>23.049999999999983</v>
+      </c>
       <c r="M8" s="4">
         <f>ПМ!M8 + ПЖ!M8 - УМ!M8 - УЖ!M8</f>
         <v>30.699999999999974</v>
@@ -5288,7 +5303,10 @@
         <f>ПМ!K9 + ПЖ!K9 - УМ!K9 - УЖ!K9</f>
         <v>19.099999999999994</v>
       </c>
-      <c r="L9" s="4"/>
+      <c r="L9" s="4">
+        <f t="shared" si="0"/>
+        <v>25.700000000000006</v>
+      </c>
       <c r="M9" s="4">
         <f>ПМ!M9 + ПЖ!M9 - УМ!M9 - УЖ!M9</f>
         <v>32.300000000000018</v>
@@ -5342,7 +5360,10 @@
         <f>ПМ!K10 + ПЖ!K10 - УМ!K10 - УЖ!K10</f>
         <v>36.799999999999997</v>
       </c>
-      <c r="L10" s="4"/>
+      <c r="L10" s="4">
+        <f t="shared" si="0"/>
+        <v>28.199999999999996</v>
+      </c>
       <c r="M10" s="4">
         <f>ПМ!M10 + ПЖ!M10 - УМ!M10 - УЖ!M10</f>
         <v>19.599999999999994</v>
@@ -5396,7 +5417,10 @@
         <f>ПМ!K11 + ПЖ!K11 - УМ!K11 - УЖ!K11</f>
         <v>162.99999999999994</v>
       </c>
-      <c r="L11" s="4"/>
+      <c r="L11" s="4">
+        <f t="shared" si="0"/>
+        <v>143.89999999999998</v>
+      </c>
       <c r="M11" s="4">
         <f>ПМ!M11 + ПЖ!M11 - УМ!M11 - УЖ!M11</f>
         <v>124.80000000000003</v>
@@ -5450,7 +5474,10 @@
         <f>ПМ!K12 + ПЖ!K12 - УМ!K12 - УЖ!K12</f>
         <v>59.999999999999972</v>
       </c>
-      <c r="L12" s="4"/>
+      <c r="L12" s="4">
+        <f t="shared" si="0"/>
+        <v>68.34999999999998</v>
+      </c>
       <c r="M12" s="4">
         <f>ПМ!M12 + ПЖ!M12 - УМ!M12 - УЖ!M12</f>
         <v>76.699999999999989</v>
@@ -5504,7 +5531,10 @@
         <f>ПМ!K13 + ПЖ!K13 - УМ!K13 - УЖ!K13</f>
         <v>-96.4</v>
       </c>
-      <c r="L13" s="4"/>
+      <c r="L13" s="4">
+        <f t="shared" si="0"/>
+        <v>-77.250000000000014</v>
+      </c>
       <c r="M13" s="4">
         <f>ПМ!M13 + ПЖ!M13 - УМ!M13 - УЖ!M13</f>
         <v>-58.100000000000023</v>
@@ -5558,7 +5588,10 @@
         <f>ПМ!K14 + ПЖ!K14 - УМ!K14 - УЖ!K14</f>
         <v>212.39999999999998</v>
       </c>
-      <c r="L14" s="4"/>
+      <c r="L14" s="4">
+        <f t="shared" si="0"/>
+        <v>213.04999999999995</v>
+      </c>
       <c r="M14" s="4">
         <f>ПМ!M14 + ПЖ!M14 - УМ!M14 - УЖ!M14</f>
         <v>213.69999999999993</v>
@@ -5612,7 +5645,10 @@
         <f>ПМ!K15 + ПЖ!K15 - УМ!K15 - УЖ!K15</f>
         <v>56.899999999999977</v>
       </c>
-      <c r="L15" s="4"/>
+      <c r="L15" s="4">
+        <f t="shared" si="0"/>
+        <v>64.949999999999989</v>
+      </c>
       <c r="M15" s="4">
         <f>ПМ!M15 + ПЖ!M15 - УМ!M15 - УЖ!M15</f>
         <v>73</v>
@@ -5666,7 +5702,10 @@
         <f>ПМ!K16 + ПЖ!K16 - УМ!K16 - УЖ!K16</f>
         <v>16.600000000000051</v>
       </c>
-      <c r="L16" s="4"/>
+      <c r="L16" s="4">
+        <f t="shared" si="0"/>
+        <v>23.100000000000009</v>
+      </c>
       <c r="M16" s="4">
         <f>ПМ!M16 + ПЖ!M16 - УМ!M16 - УЖ!M16</f>
         <v>29.599999999999966</v>
@@ -5720,7 +5759,10 @@
         <f>ПМ!K17 + ПЖ!K17 - УМ!K17 - УЖ!K17</f>
         <v>9.1000000000000227</v>
       </c>
-      <c r="L17" s="4"/>
+      <c r="L17" s="4">
+        <f t="shared" si="0"/>
+        <v>13.400000000000013</v>
+      </c>
       <c r="M17" s="4">
         <f>ПМ!M17 + ПЖ!M17 - УМ!M17 - УЖ!M17</f>
         <v>17.700000000000003</v>
@@ -5774,7 +5816,10 @@
         <f>ПМ!K18 + ПЖ!K18 - УМ!K18 - УЖ!K18</f>
         <v>15.399999999999977</v>
       </c>
-      <c r="L18" s="4"/>
+      <c r="L18" s="4">
+        <f t="shared" si="0"/>
+        <v>14.449999999999996</v>
+      </c>
       <c r="M18" s="4">
         <f>ПМ!M18 + ПЖ!M18 - УМ!M18 - УЖ!M18</f>
         <v>13.500000000000014</v>
@@ -5828,7 +5873,10 @@
         <f>ПМ!K19 + ПЖ!K19 - УМ!K19 - УЖ!K19</f>
         <v>12.399999999999991</v>
       </c>
-      <c r="L19" s="4"/>
+      <c r="L19" s="4">
+        <f t="shared" si="0"/>
+        <v>14.149999999999981</v>
+      </c>
       <c r="M19" s="4">
         <f>ПМ!M19 + ПЖ!M19 - УМ!M19 - УЖ!M19</f>
         <v>15.89999999999997</v>
@@ -5882,7 +5930,10 @@
         <f>ПМ!K20 + ПЖ!K20 - УМ!K20 - УЖ!K20</f>
         <v>12.300000000000011</v>
       </c>
-      <c r="L20" s="4"/>
+      <c r="L20" s="4">
+        <f t="shared" si="0"/>
+        <v>12.650000000000013</v>
+      </c>
       <c r="M20" s="4">
         <f>ПМ!M20 + ПЖ!M20 - УМ!M20 - УЖ!M20</f>
         <v>13.000000000000014</v>
@@ -5936,7 +5987,10 @@
         <f>ПМ!K21 + ПЖ!K21 - УМ!K21 - УЖ!K21</f>
         <v>7.6999999999999957</v>
       </c>
-      <c r="L21" s="4"/>
+      <c r="L21" s="4">
+        <f t="shared" si="0"/>
+        <v>9.5</v>
+      </c>
       <c r="M21" s="4">
         <f>ПМ!M21 + ПЖ!M21 - УМ!M21 - УЖ!M21</f>
         <v>11.300000000000004</v>
@@ -5990,7 +6044,10 @@
         <f>ПМ!K22 + ПЖ!K22 - УМ!K22 - УЖ!K22</f>
         <v>24.200000000000017</v>
       </c>
-      <c r="L22" s="4"/>
+      <c r="L22" s="4">
+        <f t="shared" si="0"/>
+        <v>24.050000000000011</v>
+      </c>
       <c r="M22" s="4">
         <f>ПМ!M22 + ПЖ!M22 - УМ!M22 - УЖ!M22</f>
         <v>23.900000000000006</v>
@@ -6044,7 +6101,10 @@
         <f>ПМ!K23 + ПЖ!K23 - УМ!K23 - УЖ!K23</f>
         <v>2</v>
       </c>
-      <c r="L23" s="4"/>
+      <c r="L23" s="4">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999998757E-2</v>
+      </c>
       <c r="M23" s="4">
         <f>ПМ!M23 + ПЖ!M23 - УМ!M23 - УЖ!M23</f>
         <v>-2.1999999999999975</v>
@@ -6063,48 +6123,57 @@
         <v>-0.40000000000145519</v>
       </c>
       <c r="C25" s="3">
-        <f t="shared" ref="C25:K25" si="0">SUM(C6:C23)-C4</f>
+        <f t="shared" ref="C25:L25" si="1">SUM(C6:C23)-C4</f>
         <v>0.30000000000097771</v>
       </c>
       <c r="D25" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.29999999999949978</v>
       </c>
       <c r="E25" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F25" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.20000000000004547</v>
       </c>
       <c r="G25" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H25" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.20000000000027285</v>
       </c>
       <c r="I25" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-9.9999999998999556E-2</v>
       </c>
       <c r="J25" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.30000000000006821</v>
       </c>
       <c r="K25" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.59999999999899956</v>
       </c>
+      <c r="L25" s="3">
+        <f t="shared" si="1"/>
+        <v>-0.24999999999965894</v>
+      </c>
       <c r="M25" s="3">
-        <f t="shared" ref="M25:N25" si="1">SUM(M6:M23)-M4</f>
+        <f t="shared" ref="M25:N25" si="2">SUM(M6:M23)-M4</f>
         <v>9.9999999999909051E-2</v>
       </c>
       <c r="N25" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.20000000000061391</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
